--- a/biology/Zoologie/Cryptocheilus/Cryptocheilus.xlsx
+++ b/biology/Zoologie/Cryptocheilus/Cryptocheilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptochilus, Salius
 Cryptocheilus est un genre d'insectes de l'ordre des hyménoptères, de la famille des Pompilidae et de la sous-famille des Pepsinae.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sous-genre Adonta
 Cryptocheilus albosignatus Sustera, 1924
@@ -541,11 +555,45 @@
 Cryptocheilus discolor (Fabricius, 1793)
 Cryptocheilus octomaculatus (Rossius, 1790)
 Sous-genre Ichneumocheilus
-Cryptocheilus ichneumonoides (Costa, 1874)
-Espèces fossiles
-Il existe aussi des espèces fossiles:
-†Cryptocheilus hypogaeus Cockerell, 1914[2] - Formation de Florissant au Colorado, Éocène
-†Cryptochilus dubius  Piton and Théobald, 1939[3] - Puy de Mur/Mur-sur-Allier en Auvergne, Oligocène</t>
+Cryptocheilus ichneumonoides (Costa, 1874)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cryptocheilus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptocheilus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il existe aussi des espèces fossiles:
+†Cryptocheilus hypogaeus Cockerell, 1914 - Formation de Florissant au Colorado, Éocène
+†Cryptochilus dubius  Piton and Théobald, 1939 - Puy de Mur/Mur-sur-Allier en Auvergne, Oligocène</t>
         </is>
       </c>
     </row>
